--- a/results/WDS.xlsx
+++ b/results/WDS.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P129"/>
+  <dimension ref="A1:P171"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6794,6 +6794,2050 @@
       </c>
       <c r="P129" t="n">
         <v>-19.82507491057226</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>57</v>
+      </c>
+      <c r="C130" t="inlineStr"/>
+      <c r="D130" t="n">
+        <v>0.5242525339126587</v>
+      </c>
+      <c r="E130" t="n">
+        <v>36.98634233104254</v>
+      </c>
+      <c r="F130" t="b">
+        <v>1</v>
+      </c>
+      <c r="G130" t="n">
+        <v>42.92243600078131</v>
+      </c>
+      <c r="H130" t="n">
+        <v>43</v>
+      </c>
+      <c r="I130" t="n">
+        <v>-10.50228551780098</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
+      <c r="K130" t="b">
+        <v>0</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="n">
+        <v>5.936093669738774</v>
+      </c>
+      <c r="O130" t="inlineStr"/>
+      <c r="P130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>174</v>
+      </c>
+      <c r="C131" t="inlineStr"/>
+      <c r="D131" t="n">
+        <v>0.7987203001976013</v>
+      </c>
+      <c r="E131" t="n">
+        <v>22.40068004432438</v>
+      </c>
+      <c r="F131" t="b">
+        <v>1</v>
+      </c>
+      <c r="G131" t="n">
+        <v>33.23164216369415</v>
+      </c>
+      <c r="H131" t="n">
+        <v>26</v>
+      </c>
+      <c r="I131" t="n">
+        <v>-0.9146497258093411</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
+      <c r="K131" t="b">
+        <v>0</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="n">
+        <v>10.83096211936977</v>
+      </c>
+      <c r="O131" t="inlineStr"/>
+      <c r="P131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>300</v>
+      </c>
+      <c r="C132" t="inlineStr"/>
+      <c r="D132" t="n">
+        <v>1.19336748123169</v>
+      </c>
+      <c r="E132" t="n">
+        <v>9.577210047017708</v>
+      </c>
+      <c r="F132" t="b">
+        <v>1</v>
+      </c>
+      <c r="G132" t="n">
+        <v>9.577210047017708</v>
+      </c>
+      <c r="H132" t="n">
+        <v>52</v>
+      </c>
+      <c r="I132" t="n">
+        <v>-19.35484868091884</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
+      <c r="K132" t="b">
+        <v>0</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="n">
+        <v>0</v>
+      </c>
+      <c r="O132" t="inlineStr"/>
+      <c r="P132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>335</v>
+      </c>
+      <c r="C133" t="inlineStr"/>
+      <c r="D133" t="n">
+        <v>1.195827603340149</v>
+      </c>
+      <c r="E133" t="n">
+        <v>22.07576882385175</v>
+      </c>
+      <c r="F133" t="b">
+        <v>1</v>
+      </c>
+      <c r="G133" t="n">
+        <v>27.38342640694506</v>
+      </c>
+      <c r="H133" t="n">
+        <v>52</v>
+      </c>
+      <c r="I133" t="n">
+        <v>-4.565205532703005</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
+      <c r="K133" t="b">
+        <v>0</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="n">
+        <v>5.307657583093306</v>
+      </c>
+      <c r="O133" t="inlineStr"/>
+      <c r="P133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>586</v>
+      </c>
+      <c r="C134" t="inlineStr"/>
+      <c r="D134" t="n">
+        <v>2.783679246902466</v>
+      </c>
+      <c r="E134" t="n">
+        <v>7.448929592208432</v>
+      </c>
+      <c r="F134" t="b">
+        <v>1</v>
+      </c>
+      <c r="G134" t="n">
+        <v>31.01299615057335</v>
+      </c>
+      <c r="H134" t="n">
+        <v>39</v>
+      </c>
+      <c r="I134" t="n">
+        <v>-3.304912461984221</v>
+      </c>
+      <c r="J134" t="n">
+        <v>45</v>
+      </c>
+      <c r="K134" t="b">
+        <v>1</v>
+      </c>
+      <c r="L134" t="n">
+        <v>23</v>
+      </c>
+      <c r="M134" t="n">
+        <v>12.86313667729367</v>
+      </c>
+      <c r="N134" t="n">
+        <v>23.56406655836492</v>
+      </c>
+      <c r="O134" t="n">
+        <v>5.414207085085242</v>
+      </c>
+      <c r="P134" t="n">
+        <v>-18.14985947327968</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>654</v>
+      </c>
+      <c r="C135" t="inlineStr"/>
+      <c r="D135" t="n">
+        <v>4.011349678039551</v>
+      </c>
+      <c r="E135" t="n">
+        <v>14.26928787351068</v>
+      </c>
+      <c r="F135" t="b">
+        <v>1</v>
+      </c>
+      <c r="G135" t="n">
+        <v>30.53678446429327</v>
+      </c>
+      <c r="H135" t="n">
+        <v>44</v>
+      </c>
+      <c r="I135" t="n">
+        <v>-4.551804098409401</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
+      <c r="K135" t="b">
+        <v>1</v>
+      </c>
+      <c r="L135" t="n">
+        <v>27</v>
+      </c>
+      <c r="M135" t="n">
+        <v>4.647514802535778</v>
+      </c>
+      <c r="N135" t="n">
+        <v>16.26749659078259</v>
+      </c>
+      <c r="O135" t="n">
+        <v>-9.621773070974905</v>
+      </c>
+      <c r="P135" t="n">
+        <v>-25.88926966175749</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>669</v>
+      </c>
+      <c r="C136" t="inlineStr"/>
+      <c r="D136" t="n">
+        <v>4.562802791595459</v>
+      </c>
+      <c r="E136" t="n">
+        <v>-5.174277771582935</v>
+      </c>
+      <c r="F136" t="b">
+        <v>0</v>
+      </c>
+      <c r="G136" t="n">
+        <v>14.7603155888457</v>
+      </c>
+      <c r="H136" t="n">
+        <v>29</v>
+      </c>
+      <c r="I136" t="n">
+        <v>-14.26113076877188</v>
+      </c>
+      <c r="J136" t="n">
+        <v>22</v>
+      </c>
+      <c r="K136" t="b">
+        <v>1</v>
+      </c>
+      <c r="L136" t="n">
+        <v>12</v>
+      </c>
+      <c r="M136" t="n">
+        <v>-8.000017974914753</v>
+      </c>
+      <c r="N136" t="n">
+        <v>19.93459336042864</v>
+      </c>
+      <c r="O136" t="n">
+        <v>-2.825740203331818</v>
+      </c>
+      <c r="P136" t="n">
+        <v>-22.76033356376045</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>736</v>
+      </c>
+      <c r="C137" t="inlineStr"/>
+      <c r="D137" t="n">
+        <v>4.685118675231934</v>
+      </c>
+      <c r="E137" t="n">
+        <v>-27.00354061704931</v>
+      </c>
+      <c r="F137" t="b">
+        <v>0</v>
+      </c>
+      <c r="G137" t="n">
+        <v>7.2427146065738</v>
+      </c>
+      <c r="H137" t="n">
+        <v>3</v>
+      </c>
+      <c r="I137" t="n">
+        <v>-28.2237408485796</v>
+      </c>
+      <c r="J137" t="n">
+        <v>52</v>
+      </c>
+      <c r="K137" t="b">
+        <v>1</v>
+      </c>
+      <c r="L137" t="n">
+        <v>13</v>
+      </c>
+      <c r="M137" t="n">
+        <v>-4.158515179932514</v>
+      </c>
+      <c r="N137" t="n">
+        <v>34.24625522362311</v>
+      </c>
+      <c r="O137" t="n">
+        <v>22.8450254371168</v>
+      </c>
+      <c r="P137" t="n">
+        <v>-11.40122978650631</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>781</v>
+      </c>
+      <c r="C138" t="inlineStr"/>
+      <c r="D138" t="n">
+        <v>4.082442283630371</v>
+      </c>
+      <c r="E138" t="n">
+        <v>29.14876385008144</v>
+      </c>
+      <c r="F138" t="b">
+        <v>1</v>
+      </c>
+      <c r="G138" t="n">
+        <v>34.51550687484035</v>
+      </c>
+      <c r="H138" t="n">
+        <v>51</v>
+      </c>
+      <c r="I138" t="n">
+        <v>-17.62766774756101</v>
+      </c>
+      <c r="J138" t="n">
+        <v>7</v>
+      </c>
+      <c r="K138" t="b">
+        <v>1</v>
+      </c>
+      <c r="L138" t="n">
+        <v>6</v>
+      </c>
+      <c r="M138" t="n">
+        <v>-10.62609107607519</v>
+      </c>
+      <c r="N138" t="n">
+        <v>5.366743024758904</v>
+      </c>
+      <c r="O138" t="n">
+        <v>-39.77485492615664</v>
+      </c>
+      <c r="P138" t="n">
+        <v>-45.14159795091554</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>802</v>
+      </c>
+      <c r="C139" t="inlineStr"/>
+      <c r="D139" t="n">
+        <v>4.243412971496582</v>
+      </c>
+      <c r="E139" t="n">
+        <v>38.17802780106982</v>
+      </c>
+      <c r="F139" t="b">
+        <v>1</v>
+      </c>
+      <c r="G139" t="n">
+        <v>45.54417396184879</v>
+      </c>
+      <c r="H139" t="n">
+        <v>46</v>
+      </c>
+      <c r="I139" t="n">
+        <v>-6.885243047082677</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
+      <c r="K139" t="b">
+        <v>1</v>
+      </c>
+      <c r="L139" t="n">
+        <v>13</v>
+      </c>
+      <c r="M139" t="n">
+        <v>9.342974927076748</v>
+      </c>
+      <c r="N139" t="n">
+        <v>7.366146160778975</v>
+      </c>
+      <c r="O139" t="n">
+        <v>-28.83505287399307</v>
+      </c>
+      <c r="P139" t="n">
+        <v>-36.20119903477205</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>828</v>
+      </c>
+      <c r="C140" t="inlineStr"/>
+      <c r="D140" t="n">
+        <v>5.124003887176514</v>
+      </c>
+      <c r="E140" t="n">
+        <v>38.5626404325777</v>
+      </c>
+      <c r="F140" t="b">
+        <v>1</v>
+      </c>
+      <c r="G140" t="n">
+        <v>52.86728091932781</v>
+      </c>
+      <c r="H140" t="n">
+        <v>51</v>
+      </c>
+      <c r="I140" t="n">
+        <v>-6.482755645114898</v>
+      </c>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
+      <c r="K140" t="b">
+        <v>1</v>
+      </c>
+      <c r="L140" t="n">
+        <v>24</v>
+      </c>
+      <c r="M140" t="n">
+        <v>11.27604560473077</v>
+      </c>
+      <c r="N140" t="n">
+        <v>14.30464048675011</v>
+      </c>
+      <c r="O140" t="n">
+        <v>-27.28659482784693</v>
+      </c>
+      <c r="P140" t="n">
+        <v>-41.59123531459704</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>868</v>
+      </c>
+      <c r="C141" t="inlineStr"/>
+      <c r="D141" t="n">
+        <v>6.895742893218994</v>
+      </c>
+      <c r="E141" t="n">
+        <v>75.45549638586692</v>
+      </c>
+      <c r="F141" t="b">
+        <v>1</v>
+      </c>
+      <c r="G141" t="n">
+        <v>82.24211707458903</v>
+      </c>
+      <c r="H141" t="n">
+        <v>48</v>
+      </c>
+      <c r="I141" t="n">
+        <v>-4.389209735293568</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
+      <c r="K141" t="b">
+        <v>1</v>
+      </c>
+      <c r="L141" t="n">
+        <v>21</v>
+      </c>
+      <c r="M141" t="n">
+        <v>9.465930076995893</v>
+      </c>
+      <c r="N141" t="n">
+        <v>6.78662068872211</v>
+      </c>
+      <c r="O141" t="n">
+        <v>-65.98956630887103</v>
+      </c>
+      <c r="P141" t="n">
+        <v>-72.77618699759314</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>905</v>
+      </c>
+      <c r="C142" t="inlineStr"/>
+      <c r="D142" t="n">
+        <v>9.901792526245115</v>
+      </c>
+      <c r="E142" t="n">
+        <v>67.19135584277896</v>
+      </c>
+      <c r="F142" t="b">
+        <v>1</v>
+      </c>
+      <c r="G142" t="n">
+        <v>90.74745905284068</v>
+      </c>
+      <c r="H142" t="n">
+        <v>46</v>
+      </c>
+      <c r="I142" t="n">
+        <v>-7.775703911549037</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
+      <c r="K142" t="b">
+        <v>0</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="n">
+        <v>23.55610321006172</v>
+      </c>
+      <c r="O142" t="inlineStr"/>
+      <c r="P142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>915</v>
+      </c>
+      <c r="C143" t="inlineStr"/>
+      <c r="D143" t="n">
+        <v>12.26711750030518</v>
+      </c>
+      <c r="E143" t="n">
+        <v>28.92495960314093</v>
+      </c>
+      <c r="F143" t="b">
+        <v>1</v>
+      </c>
+      <c r="G143" t="n">
+        <v>53.96785466534227</v>
+      </c>
+      <c r="H143" t="n">
+        <v>36</v>
+      </c>
+      <c r="I143" t="n">
+        <v>-11.251998811925</v>
+      </c>
+      <c r="J143" t="n">
+        <v>10</v>
+      </c>
+      <c r="K143" t="b">
+        <v>1</v>
+      </c>
+      <c r="L143" t="n">
+        <v>43</v>
+      </c>
+      <c r="M143" t="n">
+        <v>27.811945964415</v>
+      </c>
+      <c r="N143" t="n">
+        <v>25.04289506220134</v>
+      </c>
+      <c r="O143" t="n">
+        <v>-1.113013638725928</v>
+      </c>
+      <c r="P143" t="n">
+        <v>-26.15590870092726</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>937</v>
+      </c>
+      <c r="C144" t="inlineStr"/>
+      <c r="D144" t="n">
+        <v>15.37623310089111</v>
+      </c>
+      <c r="E144" t="n">
+        <v>-10.65970425504347</v>
+      </c>
+      <c r="F144" t="b">
+        <v>0</v>
+      </c>
+      <c r="G144" t="n">
+        <v>22.83514122455676</v>
+      </c>
+      <c r="H144" t="n">
+        <v>14</v>
+      </c>
+      <c r="I144" t="n">
+        <v>-13.13028532279596</v>
+      </c>
+      <c r="J144" t="n">
+        <v>52</v>
+      </c>
+      <c r="K144" t="b">
+        <v>1</v>
+      </c>
+      <c r="L144" t="n">
+        <v>21</v>
+      </c>
+      <c r="M144" t="n">
+        <v>1.968027461632972</v>
+      </c>
+      <c r="N144" t="n">
+        <v>33.49484547960023</v>
+      </c>
+      <c r="O144" t="n">
+        <v>12.62773171667644</v>
+      </c>
+      <c r="P144" t="n">
+        <v>-20.86711376292379</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>1005</v>
+      </c>
+      <c r="C145" t="inlineStr"/>
+      <c r="D145" t="n">
+        <v>16.35120010375977</v>
+      </c>
+      <c r="E145" t="n">
+        <v>39.52959952817874</v>
+      </c>
+      <c r="F145" t="b">
+        <v>1</v>
+      </c>
+      <c r="G145" t="n">
+        <v>48.07272775628977</v>
+      </c>
+      <c r="H145" t="n">
+        <v>51</v>
+      </c>
+      <c r="I145" t="n">
+        <v>-11.06584505880886</v>
+      </c>
+      <c r="J145" t="n">
+        <v>15</v>
+      </c>
+      <c r="K145" t="b">
+        <v>1</v>
+      </c>
+      <c r="L145" t="n">
+        <v>12</v>
+      </c>
+      <c r="M145" t="n">
+        <v>3.017985619063594</v>
+      </c>
+      <c r="N145" t="n">
+        <v>8.543128228111023</v>
+      </c>
+      <c r="O145" t="n">
+        <v>-36.51161390911515</v>
+      </c>
+      <c r="P145" t="n">
+        <v>-45.05474213722617</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>1009</v>
+      </c>
+      <c r="C146" t="inlineStr"/>
+      <c r="D146" t="n">
+        <v>17.11491584777832</v>
+      </c>
+      <c r="E146" t="n">
+        <v>52.01264439613984</v>
+      </c>
+      <c r="F146" t="b">
+        <v>1</v>
+      </c>
+      <c r="G146" t="n">
+        <v>68.38322621101351</v>
+      </c>
+      <c r="H146" t="n">
+        <v>52</v>
+      </c>
+      <c r="I146" t="n">
+        <v>-15.03433750794877</v>
+      </c>
+      <c r="J146" t="n">
+        <v>11</v>
+      </c>
+      <c r="K146" t="b">
+        <v>1</v>
+      </c>
+      <c r="L146" t="n">
+        <v>8</v>
+      </c>
+      <c r="M146" t="n">
+        <v>-1.578967017695579</v>
+      </c>
+      <c r="N146" t="n">
+        <v>16.37058181487367</v>
+      </c>
+      <c r="O146" t="n">
+        <v>-53.59161141383542</v>
+      </c>
+      <c r="P146" t="n">
+        <v>-69.96219322870908</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>1048</v>
+      </c>
+      <c r="C147" t="inlineStr"/>
+      <c r="D147" t="n">
+        <v>22.58661842346192</v>
+      </c>
+      <c r="E147" t="n">
+        <v>-35.74327178940057</v>
+      </c>
+      <c r="F147" t="b">
+        <v>0</v>
+      </c>
+      <c r="G147" t="n">
+        <v>27.59168693377187</v>
+      </c>
+      <c r="H147" t="n">
+        <v>13</v>
+      </c>
+      <c r="I147" t="n">
+        <v>-51.87923822911312</v>
+      </c>
+      <c r="J147" t="n">
+        <v>38</v>
+      </c>
+      <c r="K147" t="b">
+        <v>1</v>
+      </c>
+      <c r="L147" t="n">
+        <v>31</v>
+      </c>
+      <c r="M147" t="n">
+        <v>-10.23799151031005</v>
+      </c>
+      <c r="N147" t="n">
+        <v>63.33495872317244</v>
+      </c>
+      <c r="O147" t="n">
+        <v>25.50528027909053</v>
+      </c>
+      <c r="P147" t="n">
+        <v>-37.82967844408191</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>1055</v>
+      </c>
+      <c r="C148" t="inlineStr"/>
+      <c r="D148" t="n">
+        <v>22.95084953308105</v>
+      </c>
+      <c r="E148" t="n">
+        <v>-31.55453132278249</v>
+      </c>
+      <c r="F148" t="b">
+        <v>0</v>
+      </c>
+      <c r="G148" t="n">
+        <v>25.56680059380962</v>
+      </c>
+      <c r="H148" t="n">
+        <v>6</v>
+      </c>
+      <c r="I148" t="n">
+        <v>-52.64291708249345</v>
+      </c>
+      <c r="J148" t="n">
+        <v>31</v>
+      </c>
+      <c r="K148" t="b">
+        <v>1</v>
+      </c>
+      <c r="L148" t="n">
+        <v>24</v>
+      </c>
+      <c r="M148" t="n">
+        <v>-11.6625189948686</v>
+      </c>
+      <c r="N148" t="n">
+        <v>57.1213319165921</v>
+      </c>
+      <c r="O148" t="n">
+        <v>19.89201232791388</v>
+      </c>
+      <c r="P148" t="n">
+        <v>-37.22931958867822</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>1125</v>
+      </c>
+      <c r="C149" t="inlineStr"/>
+      <c r="D149" t="n">
+        <v>19.43507385253906</v>
+      </c>
+      <c r="E149" t="n">
+        <v>-5.272869057554504</v>
+      </c>
+      <c r="F149" t="b">
+        <v>0</v>
+      </c>
+      <c r="G149" t="n">
+        <v>16.56654083932759</v>
+      </c>
+      <c r="H149" t="n">
+        <v>8</v>
+      </c>
+      <c r="I149" t="n">
+        <v>-13.14120054353764</v>
+      </c>
+      <c r="J149" t="n">
+        <v>39</v>
+      </c>
+      <c r="K149" t="b">
+        <v>1</v>
+      </c>
+      <c r="L149" t="n">
+        <v>17</v>
+      </c>
+      <c r="M149" t="n">
+        <v>3.047241612408603</v>
+      </c>
+      <c r="N149" t="n">
+        <v>21.8394098968821</v>
+      </c>
+      <c r="O149" t="n">
+        <v>8.320110669963107</v>
+      </c>
+      <c r="P149" t="n">
+        <v>-13.51929922691899</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>1133</v>
+      </c>
+      <c r="C150" t="inlineStr"/>
+      <c r="D150" t="n">
+        <v>21.98749351501465</v>
+      </c>
+      <c r="E150" t="n">
+        <v>-12.98454802091537</v>
+      </c>
+      <c r="F150" t="b">
+        <v>0</v>
+      </c>
+      <c r="G150" t="n">
+        <v>3.034906111526975</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>-23.22421011624339</v>
+      </c>
+      <c r="J150" t="n">
+        <v>31</v>
+      </c>
+      <c r="K150" t="b">
+        <v>1</v>
+      </c>
+      <c r="L150" t="n">
+        <v>9</v>
+      </c>
+      <c r="M150" t="n">
+        <v>-8.915004355999539</v>
+      </c>
+      <c r="N150" t="n">
+        <v>16.01945413244235</v>
+      </c>
+      <c r="O150" t="n">
+        <v>4.069543664915834</v>
+      </c>
+      <c r="P150" t="n">
+        <v>-11.94991046752651</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>1183</v>
+      </c>
+      <c r="C151" t="inlineStr"/>
+      <c r="D151" t="n">
+        <v>19.11957168579102</v>
+      </c>
+      <c r="E151" t="n">
+        <v>-24.61336917739358</v>
+      </c>
+      <c r="F151" t="b">
+        <v>0</v>
+      </c>
+      <c r="G151" t="n">
+        <v>16.27735507264319</v>
+      </c>
+      <c r="H151" t="n">
+        <v>28</v>
+      </c>
+      <c r="I151" t="n">
+        <v>-30.92653572525545</v>
+      </c>
+      <c r="J151" t="n">
+        <v>52</v>
+      </c>
+      <c r="K151" t="b">
+        <v>1</v>
+      </c>
+      <c r="L151" t="n">
+        <v>31</v>
+      </c>
+      <c r="M151" t="n">
+        <v>3.609199452283411</v>
+      </c>
+      <c r="N151" t="n">
+        <v>40.89072425003678</v>
+      </c>
+      <c r="O151" t="n">
+        <v>28.22256862967699</v>
+      </c>
+      <c r="P151" t="n">
+        <v>-12.66815562035978</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>1188</v>
+      </c>
+      <c r="C152" t="inlineStr"/>
+      <c r="D152" t="n">
+        <v>19.74538230895996</v>
+      </c>
+      <c r="E152" t="n">
+        <v>-17.58582926812069</v>
+      </c>
+      <c r="F152" t="b">
+        <v>0</v>
+      </c>
+      <c r="G152" t="n">
+        <v>12.59205777630128</v>
+      </c>
+      <c r="H152" t="n">
+        <v>23</v>
+      </c>
+      <c r="I152" t="n">
+        <v>-33.11575176806666</v>
+      </c>
+      <c r="J152" t="n">
+        <v>47</v>
+      </c>
+      <c r="K152" t="b">
+        <v>1</v>
+      </c>
+      <c r="L152" t="n">
+        <v>26</v>
+      </c>
+      <c r="M152" t="n">
+        <v>0.3254069857356062</v>
+      </c>
+      <c r="N152" t="n">
+        <v>30.17788704442198</v>
+      </c>
+      <c r="O152" t="n">
+        <v>17.9112362538563</v>
+      </c>
+      <c r="P152" t="n">
+        <v>-12.26665079056568</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>1205</v>
+      </c>
+      <c r="C153" t="inlineStr"/>
+      <c r="D153" t="n">
+        <v>18.73411750793457</v>
+      </c>
+      <c r="E153" t="n">
+        <v>-14.01354887099699</v>
+      </c>
+      <c r="F153" t="b">
+        <v>0</v>
+      </c>
+      <c r="G153" t="n">
+        <v>18.66975985412623</v>
+      </c>
+      <c r="H153" t="n">
+        <v>6</v>
+      </c>
+      <c r="I153" t="n">
+        <v>-29.50535026656269</v>
+      </c>
+      <c r="J153" t="n">
+        <v>30</v>
+      </c>
+      <c r="K153" t="b">
+        <v>1</v>
+      </c>
+      <c r="L153" t="n">
+        <v>9</v>
+      </c>
+      <c r="M153" t="n">
+        <v>5.740957127889416</v>
+      </c>
+      <c r="N153" t="n">
+        <v>32.68330872512321</v>
+      </c>
+      <c r="O153" t="n">
+        <v>19.7545059988864</v>
+      </c>
+      <c r="P153" t="n">
+        <v>-12.92880272623681</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>1256</v>
+      </c>
+      <c r="C154" t="inlineStr"/>
+      <c r="D154" t="n">
+        <v>16.80107498168945</v>
+      </c>
+      <c r="E154" t="n">
+        <v>2.77311882180623</v>
+      </c>
+      <c r="F154" t="b">
+        <v>1</v>
+      </c>
+      <c r="G154" t="n">
+        <v>6.88949440744549</v>
+      </c>
+      <c r="H154" t="n">
+        <v>52</v>
+      </c>
+      <c r="I154" t="n">
+        <v>-19.43861439593767</v>
+      </c>
+      <c r="J154" t="n">
+        <v>20</v>
+      </c>
+      <c r="K154" t="b">
+        <v>1</v>
+      </c>
+      <c r="L154" t="n">
+        <v>18</v>
+      </c>
+      <c r="M154" t="n">
+        <v>-16.94868833896685</v>
+      </c>
+      <c r="N154" t="n">
+        <v>4.116375585639259</v>
+      </c>
+      <c r="O154" t="n">
+        <v>-19.72180716077308</v>
+      </c>
+      <c r="P154" t="n">
+        <v>-23.83818274641234</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>1290</v>
+      </c>
+      <c r="C155" t="inlineStr"/>
+      <c r="D155" t="n">
+        <v>16.47920989990234</v>
+      </c>
+      <c r="E155" t="n">
+        <v>12.34669297575931</v>
+      </c>
+      <c r="F155" t="b">
+        <v>1</v>
+      </c>
+      <c r="G155" t="n">
+        <v>16.26234976564571</v>
+      </c>
+      <c r="H155" t="n">
+        <v>46</v>
+      </c>
+      <c r="I155" t="n">
+        <v>-8.14340585720875</v>
+      </c>
+      <c r="J155" t="n">
+        <v>4</v>
+      </c>
+      <c r="K155" t="b">
+        <v>1</v>
+      </c>
+      <c r="L155" t="n">
+        <v>24</v>
+      </c>
+      <c r="M155" t="n">
+        <v>-1.650051412917721</v>
+      </c>
+      <c r="N155" t="n">
+        <v>3.915656789886398</v>
+      </c>
+      <c r="O155" t="n">
+        <v>-13.99674438867703</v>
+      </c>
+      <c r="P155" t="n">
+        <v>-17.91240117856343</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>1305</v>
+      </c>
+      <c r="C156" t="inlineStr"/>
+      <c r="D156" t="n">
+        <v>16.32806587219238</v>
+      </c>
+      <c r="E156" t="n">
+        <v>11.06900221701515</v>
+      </c>
+      <c r="F156" t="b">
+        <v>1</v>
+      </c>
+      <c r="G156" t="n">
+        <v>17.45741703507936</v>
+      </c>
+      <c r="H156" t="n">
+        <v>40</v>
+      </c>
+      <c r="I156" t="n">
+        <v>-3.478642258351774</v>
+      </c>
+      <c r="J156" t="n">
+        <v>11</v>
+      </c>
+      <c r="K156" t="b">
+        <v>1</v>
+      </c>
+      <c r="L156" t="n">
+        <v>9</v>
+      </c>
+      <c r="M156" t="n">
+        <v>-0.7396553212510932</v>
+      </c>
+      <c r="N156" t="n">
+        <v>6.388414818064216</v>
+      </c>
+      <c r="O156" t="n">
+        <v>-11.80865753826624</v>
+      </c>
+      <c r="P156" t="n">
+        <v>-18.19707235633046</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>1308</v>
+      </c>
+      <c r="C157" t="inlineStr"/>
+      <c r="D157" t="n">
+        <v>17.26698875427246</v>
+      </c>
+      <c r="E157" t="n">
+        <v>10.05892603178548</v>
+      </c>
+      <c r="F157" t="b">
+        <v>1</v>
+      </c>
+      <c r="G157" t="n">
+        <v>11.07046340386382</v>
+      </c>
+      <c r="H157" t="n">
+        <v>37</v>
+      </c>
+      <c r="I157" t="n">
+        <v>-8.727160843889541</v>
+      </c>
+      <c r="J157" t="n">
+        <v>8</v>
+      </c>
+      <c r="K157" t="b">
+        <v>1</v>
+      </c>
+      <c r="L157" t="n">
+        <v>6</v>
+      </c>
+      <c r="M157" t="n">
+        <v>-6.137111138726647</v>
+      </c>
+      <c r="N157" t="n">
+        <v>1.01153737207834</v>
+      </c>
+      <c r="O157" t="n">
+        <v>-16.19603717051213</v>
+      </c>
+      <c r="P157" t="n">
+        <v>-17.20757454259047</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>1331</v>
+      </c>
+      <c r="C158" t="inlineStr"/>
+      <c r="D158" t="n">
+        <v>18.34341049194336</v>
+      </c>
+      <c r="E158" t="n">
+        <v>14.22579058627068</v>
+      </c>
+      <c r="F158" t="b">
+        <v>1</v>
+      </c>
+      <c r="G158" t="n">
+        <v>17.79534028827005</v>
+      </c>
+      <c r="H158" t="n">
+        <v>52</v>
+      </c>
+      <c r="I158" t="n">
+        <v>-4.180650832426331</v>
+      </c>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
+      <c r="K158" t="b">
+        <v>1</v>
+      </c>
+      <c r="L158" t="n">
+        <v>26</v>
+      </c>
+      <c r="M158" t="n">
+        <v>-1.133871187441726</v>
+      </c>
+      <c r="N158" t="n">
+        <v>3.569549701999364</v>
+      </c>
+      <c r="O158" t="n">
+        <v>-15.35966177371241</v>
+      </c>
+      <c r="P158" t="n">
+        <v>-18.92921147571177</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>1345</v>
+      </c>
+      <c r="C159" t="inlineStr"/>
+      <c r="D159" t="n">
+        <v>19.03782653808594</v>
+      </c>
+      <c r="E159" t="n">
+        <v>9.786587003060923</v>
+      </c>
+      <c r="F159" t="b">
+        <v>1</v>
+      </c>
+      <c r="G159" t="n">
+        <v>18.15077692073252</v>
+      </c>
+      <c r="H159" t="n">
+        <v>43</v>
+      </c>
+      <c r="I159" t="n">
+        <v>-6.880737314769915</v>
+      </c>
+      <c r="J159" t="n">
+        <v>13</v>
+      </c>
+      <c r="K159" t="b">
+        <v>1</v>
+      </c>
+      <c r="L159" t="n">
+        <v>12</v>
+      </c>
+      <c r="M159" t="n">
+        <v>-4.740072038683541</v>
+      </c>
+      <c r="N159" t="n">
+        <v>8.364189917671595</v>
+      </c>
+      <c r="O159" t="n">
+        <v>-14.52665904174446</v>
+      </c>
+      <c r="P159" t="n">
+        <v>-22.89084895941606</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>1426</v>
+      </c>
+      <c r="C160" t="inlineStr"/>
+      <c r="D160" t="n">
+        <v>19.81784439086914</v>
+      </c>
+      <c r="E160" t="n">
+        <v>-19.92846568391275</v>
+      </c>
+      <c r="F160" t="b">
+        <v>0</v>
+      </c>
+      <c r="G160" t="n">
+        <v>0.8463024682362291</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>-31.46590127445305</v>
+      </c>
+      <c r="J160" t="n">
+        <v>45</v>
+      </c>
+      <c r="K160" t="b">
+        <v>1</v>
+      </c>
+      <c r="L160" t="n">
+        <v>3</v>
+      </c>
+      <c r="M160" t="n">
+        <v>-2.702695159253968</v>
+      </c>
+      <c r="N160" t="n">
+        <v>20.77476815214898</v>
+      </c>
+      <c r="O160" t="n">
+        <v>17.22577052465878</v>
+      </c>
+      <c r="P160" t="n">
+        <v>-3.548997627490197</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>1490</v>
+      </c>
+      <c r="C161" t="inlineStr"/>
+      <c r="D161" t="n">
+        <v>16.47856140136719</v>
+      </c>
+      <c r="E161" t="n">
+        <v>4.649799664610686</v>
+      </c>
+      <c r="F161" t="b">
+        <v>1</v>
+      </c>
+      <c r="G161" t="n">
+        <v>21.91200885004703</v>
+      </c>
+      <c r="H161" t="n">
+        <v>34</v>
+      </c>
+      <c r="I161" t="n">
+        <v>-6.963386010139433</v>
+      </c>
+      <c r="J161" t="n">
+        <v>6</v>
+      </c>
+      <c r="K161" t="b">
+        <v>1</v>
+      </c>
+      <c r="L161" t="n">
+        <v>4</v>
+      </c>
+      <c r="M161" t="n">
+        <v>-3.625604085045544</v>
+      </c>
+      <c r="N161" t="n">
+        <v>17.26220918543635</v>
+      </c>
+      <c r="O161" t="n">
+        <v>-8.275403749656231</v>
+      </c>
+      <c r="P161" t="n">
+        <v>-25.53761293509258</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>1497</v>
+      </c>
+      <c r="C162" t="inlineStr"/>
+      <c r="D162" t="n">
+        <v>17.28222274780273</v>
+      </c>
+      <c r="E162" t="n">
+        <v>1.451958985800689</v>
+      </c>
+      <c r="F162" t="b">
+        <v>1</v>
+      </c>
+      <c r="G162" t="n">
+        <v>16.24283245943791</v>
+      </c>
+      <c r="H162" t="n">
+        <v>27</v>
+      </c>
+      <c r="I162" t="n">
+        <v>-9.514259736830919</v>
+      </c>
+      <c r="J162" t="n">
+        <v>5</v>
+      </c>
+      <c r="K162" t="b">
+        <v>1</v>
+      </c>
+      <c r="L162" t="n">
+        <v>35</v>
+      </c>
+      <c r="M162" t="n">
+        <v>3.718575561574605</v>
+      </c>
+      <c r="N162" t="n">
+        <v>14.79087347363722</v>
+      </c>
+      <c r="O162" t="n">
+        <v>2.266616575773917</v>
+      </c>
+      <c r="P162" t="n">
+        <v>-12.52425689786331</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>1511</v>
+      </c>
+      <c r="C163" t="inlineStr"/>
+      <c r="D163" t="n">
+        <v>18.48647117614746</v>
+      </c>
+      <c r="E163" t="n">
+        <v>12.64871311931667</v>
+      </c>
+      <c r="F163" t="b">
+        <v>1</v>
+      </c>
+      <c r="G163" t="n">
+        <v>14.18424699706547</v>
+      </c>
+      <c r="H163" t="n">
+        <v>52</v>
+      </c>
+      <c r="I163" t="n">
+        <v>-8.988037925121075</v>
+      </c>
+      <c r="J163" t="n">
+        <v>28</v>
+      </c>
+      <c r="K163" t="b">
+        <v>1</v>
+      </c>
+      <c r="L163" t="n">
+        <v>21</v>
+      </c>
+      <c r="M163" t="n">
+        <v>-3.037875165016119</v>
+      </c>
+      <c r="N163" t="n">
+        <v>1.535533877748803</v>
+      </c>
+      <c r="O163" t="n">
+        <v>-15.68658828433279</v>
+      </c>
+      <c r="P163" t="n">
+        <v>-17.22212216208159</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>1553</v>
+      </c>
+      <c r="C164" t="inlineStr"/>
+      <c r="D164" t="n">
+        <v>19.20614242553711</v>
+      </c>
+      <c r="E164" t="n">
+        <v>13.53579852128447</v>
+      </c>
+      <c r="F164" t="b">
+        <v>1</v>
+      </c>
+      <c r="G164" t="n">
+        <v>30.80867537896691</v>
+      </c>
+      <c r="H164" t="n">
+        <v>48</v>
+      </c>
+      <c r="I164" t="n">
+        <v>-9.567569326255713</v>
+      </c>
+      <c r="J164" t="n">
+        <v>16</v>
+      </c>
+      <c r="K164" t="b">
+        <v>0</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="inlineStr"/>
+      <c r="N164" t="n">
+        <v>17.27287685768245</v>
+      </c>
+      <c r="O164" t="inlineStr"/>
+      <c r="P164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>1581</v>
+      </c>
+      <c r="C165" t="inlineStr"/>
+      <c r="D165" t="n">
+        <v>21.45433616638184</v>
+      </c>
+      <c r="E165" t="n">
+        <v>14.5459502992954</v>
+      </c>
+      <c r="F165" t="b">
+        <v>1</v>
+      </c>
+      <c r="G165" t="n">
+        <v>17.10127175880731</v>
+      </c>
+      <c r="H165" t="n">
+        <v>20</v>
+      </c>
+      <c r="I165" t="n">
+        <v>-12.78366486842097</v>
+      </c>
+      <c r="J165" t="n">
+        <v>32</v>
+      </c>
+      <c r="K165" t="b">
+        <v>1</v>
+      </c>
+      <c r="L165" t="n">
+        <v>45</v>
+      </c>
+      <c r="M165" t="n">
+        <v>6.601612997433984</v>
+      </c>
+      <c r="N165" t="n">
+        <v>2.555321459511912</v>
+      </c>
+      <c r="O165" t="n">
+        <v>-7.944337301861419</v>
+      </c>
+      <c r="P165" t="n">
+        <v>-10.49965876137333</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>1630</v>
+      </c>
+      <c r="C166" t="inlineStr"/>
+      <c r="D166" t="n">
+        <v>23.92105674743652</v>
+      </c>
+      <c r="E166" t="n">
+        <v>-41.35941065530877</v>
+      </c>
+      <c r="F166" t="b">
+        <v>0</v>
+      </c>
+      <c r="G166" t="n">
+        <v>3.700623891259756</v>
+      </c>
+      <c r="H166" t="n">
+        <v>4</v>
+      </c>
+      <c r="I166" t="n">
+        <v>-56.99882008061674</v>
+      </c>
+      <c r="J166" t="n">
+        <v>48</v>
+      </c>
+      <c r="K166" t="b">
+        <v>0</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="inlineStr"/>
+      <c r="N166" t="n">
+        <v>45.06003454656852</v>
+      </c>
+      <c r="O166" t="inlineStr"/>
+      <c r="P166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>1660</v>
+      </c>
+      <c r="C167" t="inlineStr"/>
+      <c r="D167" t="n">
+        <v>22.83845901489257</v>
+      </c>
+      <c r="E167" t="n">
+        <v>-33.49477155787614</v>
+      </c>
+      <c r="F167" t="b">
+        <v>0</v>
+      </c>
+      <c r="G167" t="n">
+        <v>6.705873517043114</v>
+      </c>
+      <c r="H167" t="n">
+        <v>7</v>
+      </c>
+      <c r="I167" t="n">
+        <v>-54.960461019391</v>
+      </c>
+      <c r="J167" t="n">
+        <v>18</v>
+      </c>
+      <c r="K167" t="b">
+        <v>1</v>
+      </c>
+      <c r="L167" t="n">
+        <v>32</v>
+      </c>
+      <c r="M167" t="n">
+        <v>-34.68815167618315</v>
+      </c>
+      <c r="N167" t="n">
+        <v>40.20064507491926</v>
+      </c>
+      <c r="O167" t="n">
+        <v>-1.193380118307012</v>
+      </c>
+      <c r="P167" t="n">
+        <v>-41.39402519322627</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>1719</v>
+      </c>
+      <c r="C168" t="inlineStr"/>
+      <c r="D168" t="n">
+        <v>17.40569877624512</v>
+      </c>
+      <c r="E168" t="n">
+        <v>-6.03484768506703</v>
+      </c>
+      <c r="F168" t="b">
+        <v>0</v>
+      </c>
+      <c r="G168" t="n">
+        <v>11.24544735956339</v>
+      </c>
+      <c r="H168" t="n">
+        <v>2</v>
+      </c>
+      <c r="I168" t="n">
+        <v>-21.52263484987815</v>
+      </c>
+      <c r="J168" t="n">
+        <v>32</v>
+      </c>
+      <c r="K168" t="b">
+        <v>1</v>
+      </c>
+      <c r="L168" t="n">
+        <v>7</v>
+      </c>
+      <c r="M168" t="n">
+        <v>-0.9673556771451387</v>
+      </c>
+      <c r="N168" t="n">
+        <v>17.28029504463042</v>
+      </c>
+      <c r="O168" t="n">
+        <v>5.067492007921891</v>
+      </c>
+      <c r="P168" t="n">
+        <v>-12.21280303670853</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>1773</v>
+      </c>
+      <c r="C169" t="inlineStr"/>
+      <c r="D169" t="n">
+        <v>18.14933204650879</v>
+      </c>
+      <c r="E169" t="n">
+        <v>62.53995464441774</v>
+      </c>
+      <c r="F169" t="b">
+        <v>1</v>
+      </c>
+      <c r="G169" t="n">
+        <v>73.6860527973013</v>
+      </c>
+      <c r="H169" t="n">
+        <v>42</v>
+      </c>
+      <c r="I169" t="n">
+        <v>-5.597478614734785</v>
+      </c>
+      <c r="J169" t="n">
+        <v>1</v>
+      </c>
+      <c r="K169" t="b">
+        <v>1</v>
+      </c>
+      <c r="L169" t="n">
+        <v>14</v>
+      </c>
+      <c r="M169" t="n">
+        <v>30.25686468476569</v>
+      </c>
+      <c r="N169" t="n">
+        <v>11.14609815288356</v>
+      </c>
+      <c r="O169" t="n">
+        <v>-32.28308995965205</v>
+      </c>
+      <c r="P169" t="n">
+        <v>-43.42918811253561</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>1804</v>
+      </c>
+      <c r="C170" t="inlineStr"/>
+      <c r="D170" t="n">
+        <v>27.28363037109375</v>
+      </c>
+      <c r="E170" t="n">
+        <v>16.64192616578862</v>
+      </c>
+      <c r="F170" t="b">
+        <v>1</v>
+      </c>
+      <c r="G170" t="n">
+        <v>20.85305423974217</v>
+      </c>
+      <c r="H170" t="n">
+        <v>50</v>
+      </c>
+      <c r="I170" t="n">
+        <v>-13.74086639471026</v>
+      </c>
+      <c r="J170" t="n">
+        <v>5</v>
+      </c>
+      <c r="K170" t="b">
+        <v>1</v>
+      </c>
+      <c r="L170" t="n">
+        <v>19</v>
+      </c>
+      <c r="M170" t="n">
+        <v>1.029740333098442</v>
+      </c>
+      <c r="N170" t="n">
+        <v>4.211128073953549</v>
+      </c>
+      <c r="O170" t="n">
+        <v>-15.61218583269018</v>
+      </c>
+      <c r="P170" t="n">
+        <v>-19.82331390664373</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>1810</v>
+      </c>
+      <c r="C171" t="inlineStr"/>
+      <c r="D171" t="n">
+        <v>27.73979759216309</v>
+      </c>
+      <c r="E171" t="n">
+        <v>7.605907268213334</v>
+      </c>
+      <c r="F171" t="b">
+        <v>1</v>
+      </c>
+      <c r="G171" t="n">
+        <v>22.08346333279089</v>
+      </c>
+      <c r="H171" t="n">
+        <v>49</v>
+      </c>
+      <c r="I171" t="n">
+        <v>-9.101354628170551</v>
+      </c>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
+      <c r="K171" t="b">
+        <v>1</v>
+      </c>
+      <c r="L171" t="n">
+        <v>13</v>
+      </c>
+      <c r="M171" t="n">
+        <v>-0.6316436672709984</v>
+      </c>
+      <c r="N171" t="n">
+        <v>14.47755606457756</v>
+      </c>
+      <c r="O171" t="n">
+        <v>-8.237550935484332</v>
+      </c>
+      <c r="P171" t="n">
+        <v>-22.71510700006189</v>
       </c>
     </row>
   </sheetData>
@@ -6807,7 +8851,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7020,40 +9064,90 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>42</v>
+      </c>
+      <c r="C4" t="n">
+        <v>66.66666666666666</v>
+      </c>
+      <c r="D4" t="n">
+        <v>9.290924931505016</v>
+      </c>
+      <c r="E4" t="n">
+        <v>9.922756517423203</v>
+      </c>
+      <c r="F4" t="n">
+        <v>27.67972305018534</v>
+      </c>
+      <c r="G4" t="n">
+        <v>27.21756702909949</v>
+      </c>
+      <c r="H4" t="n">
+        <v>-16.80501129489609</v>
+      </c>
+      <c r="I4" t="n">
+        <v>17.92664209759447</v>
+      </c>
+      <c r="J4" t="n">
+        <v>83.33333333333334</v>
+      </c>
+      <c r="K4" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="L4" t="n">
+        <v>37.14285714285715</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-7.350566378770975</v>
+      </c>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
           <t>random_baseline</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>500</v>
       </c>
-      <c r="O4" t="n">
+      <c r="O5" t="n">
         <v>64.60000000000001</v>
       </c>
-      <c r="P4" t="n">
+      <c r="P5" t="n">
         <v>13.53165175807768</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="Q5" t="n">
         <v>12.98224783163544</v>
       </c>
-      <c r="R4" t="n">
+      <c r="R5" t="n">
         <v>27.14207818980076</v>
       </c>
-      <c r="S4" t="n">
+      <c r="S5" t="n">
         <v>28.55863119231187</v>
       </c>
-      <c r="T4" t="n">
+      <c r="T5" t="n">
         <v>-13.19645048737146</v>
       </c>
     </row>
